--- a/voor_onderzoek/1 januari 2020 - nu/winner_percentage_RYDAF.xlsx
+++ b/voor_onderzoek/1 januari 2020 - nu/winner_percentage_RYDAF.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\School\2020-2021\00_PWS\PWS\voor_onderzoek\1 januari 2020 - nu\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -1057,8 +1062,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1100,17 +1105,5084 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>percentage</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$344</c:f>
+              <c:strCache>
+                <c:ptCount val="343"/>
+                <c:pt idx="0">
+                  <c:v>1/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>10/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>11/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>12/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>13/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>14/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>15/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>16/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>17/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>18/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>19/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>20/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>21/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>22/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>23/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>24/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>25/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>26/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>27/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>28/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>29/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>5/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>7/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>8/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>9/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>10/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>11/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>12/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>13/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>14/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>15/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>16/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>17/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>18/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>19/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>20/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>21/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>22/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>23/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>24/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>25/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>26/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>27/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>28/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>29/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>30/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>31/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>3/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>4/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>5/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>6/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>7/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>8/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>9/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>10/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>11/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>12/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>13/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>14/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>15/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>16/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>17/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>18/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>19/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>20/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>21/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>22/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>23/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>24/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>25/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>26/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>27/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>28/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>29/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>30/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>3/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>4/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>5/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>6/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>7/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>8/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>9/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>10/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>11/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>12/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>13/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>14/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>15/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>16/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>17/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>18/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>19/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>20/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>21/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>22/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>23/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>24/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>25/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>26/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>27/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>28/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>29/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>30/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>31/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>1/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>2/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>3/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>4/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>5/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>6/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>7/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>8/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>9/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>10/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>11/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>12/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>13/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>14/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>15/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>16/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>17/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>18/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>19/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>20/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>21/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>22/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>23/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>24/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>25/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>26/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>27/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>28/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>29/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>30/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>1/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>2/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>3/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>4/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>5/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>6/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>7/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>8/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>9/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>10/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>11/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>12/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>13/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>14/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>15/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>16/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>17/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>18/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>19/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>20/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>21/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>22/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>23/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>24/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>25/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>26/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>27/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>28/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>29/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>30/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>31/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>1/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>2/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>3/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>4/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>5/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>6/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>7/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>8/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>9/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>10/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>11/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>12/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>13/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>14/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>15/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>16/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>17/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>18/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>19/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>20/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>21/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>22/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>23/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>24/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>25/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>26/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>27/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>28/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>29/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>30/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>31/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>1/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>2/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>3/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>4/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>5/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>6/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>7/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>8/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>9/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>10/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>11/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>12/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>13/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>14/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>15/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>16/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>17/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>18/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>19/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>20/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>21/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>22/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>23/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>24/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>25/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>26/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>27/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>28/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>29/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>30/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>1/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>2/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>3/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>4/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>5/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>6/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>7/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>8/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>9/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>10/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>11/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>12/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>13/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>14/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>15/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>16/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>17/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>18/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>19/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>20/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>21/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>22/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>23/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>24/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>25/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>26/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>27/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>28/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>29/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>30/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>31/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>1/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>2/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>3/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>4/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>5/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>6/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>7/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>8/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>9/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>10/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>11/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>12/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>13/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>14/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>15/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>16/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>17/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>18/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>19/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>20/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>21/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>22/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>23/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>24/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>25/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>26/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>27/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>28/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>29/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>30/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>1/12/2020</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>2/12/2020</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>3/12/2020</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>4/12/2020</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>5/12/2020</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>6/12/2020</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>7/12/2020</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>8/12/2020</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$344</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="343"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.0000000000002267E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0000000000002267E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0000000000002267E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.15000000000000571</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.18000000000000679</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0000000000006253E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.0000000000006253E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.0000000000006253E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.0000000000006253E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.0000000000006253E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.1099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.9999999999993179E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.9999999999996021E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.9999999999996021E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.9999999999996021E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.9999999999996021E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.9999999999996021E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9999999999996021E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.28000000000000108</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.28000000000000108</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.28000000000000108</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.54000000000000625</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.54000000000000625</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.54000000000000625</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.39000000000000062</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.48999999999999488</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.48999999999999488</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.48999999999999488</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.48999999999999488</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.48999999999999488</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.48999999999999488</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.48999999999999488</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.48999999999999488</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.26000000000000512</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.37000000000000449</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.35999999999999938</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.35999999999999938</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.35999999999999938</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.54000000000000625</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.54000000000000625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.54000000000000625</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.54999999999999716</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.84000000000000341</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.84000000000000341</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.84000000000000341</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.84000000000000341</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.82999999999999829</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.73999999999999488</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-0.92000000000000171</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-0.92000000000000171</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-0.92000000000000171</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-0.92000000000000171</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-1.209999999999994</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-1.209999999999994</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-1.209999999999994</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-1.209999999999994</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-1.209999999999994</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-1.209999999999994</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-1.209999999999994</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-0.93000000000000682</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-1.120000000000005</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-0.59999999999999432</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-2.620000000000005</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-2.620000000000005</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-2.620000000000005</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-2.620000000000005</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-2.620000000000005</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-2.620000000000005</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-2.620000000000005</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-2.620000000000005</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-2.620000000000005</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-2.620000000000005</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-2.620000000000005</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-2.5799999999999979</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-2.5799999999999979</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-2.5799999999999979</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-1.4399999999999979</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>9.0000000000003411E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.1700000000000019</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.0499999999999969</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.31000000000000227</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.31000000000000227</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.31000000000000227</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.90999999999999659</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.2800000000000009</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.1700000000000019</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2.4500000000000028</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.7600000000000049</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.0699999999999932</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.1700000000000021</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.129999999999995</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2.129999999999995</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2.129999999999995</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2.129999999999995</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2.0100000000000051</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2.0100000000000051</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2.0100000000000051</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2.0100000000000051</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2.0100000000000051</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2.0100000000000051</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2.0100000000000051</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1.6700000000000019</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1.6700000000000019</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1.6700000000000019</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1.890000000000001</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1.680000000000007</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1.680000000000007</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1.680000000000007</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1.8299999999999981</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2.0300000000000011</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2.5600000000000018</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1.319999999999993</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1.319999999999993</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1.319999999999993</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1.319999999999993</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1.640000000000001</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1.7999999999999969</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1.5300000000000009</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1.5300000000000009</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1.730000000000004</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1.730000000000004</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1.730000000000004</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1.4899999999999951</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1.4899999999999951</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1.4899999999999951</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1.4899999999999951</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1.4899999999999951</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1.4899999999999951</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1.4899999999999951</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>2.1700000000000021</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2.0100000000000051</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2.1500000000000061</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2.2399999999999949</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>2.0600000000000018</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2.0600000000000018</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2.0600000000000018</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2.0600000000000018</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2.2099999999999942</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>2.1500000000000061</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2.1899999999999982</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>1.840000000000003</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>1.840000000000003</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>1.840000000000003</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>2.2199999999999989</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>2.5400000000000058</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>2.9599999999999942</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>2.980000000000004</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>3.629999999999995</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>3.629999999999995</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>3.629999999999995</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>4.0499999999999972</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>3.590000000000003</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>3.590000000000003</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>3.590000000000003</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>3.590000000000003</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>3.590000000000003</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>3.590000000000003</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>3.5999999999999939</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>3.8499999999999939</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>3.620000000000005</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>3.5499999999999972</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>3.5499999999999972</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>3.5499999999999972</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>3.5499999999999972</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>3.6700000000000021</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>3.7399999999999949</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>3.359999999999999</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>3.359999999999999</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>3.359999999999999</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>3.359999999999999</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>3.359999999999999</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>3.4200000000000021</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>3.3499999999999939</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>3.359999999999999</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>3.359999999999999</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>3.359999999999999</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>3.359999999999999</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>3.359999999999999</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>3.5799999999999979</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>3.390000000000001</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>3.730000000000004</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>3.840000000000003</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>3.6800000000000068</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>3.6800000000000068</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>3.6800000000000068</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>3.6800000000000068</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>3.5400000000000058</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>3.5400000000000058</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>3.2900000000000058</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>3.3100000000000018</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>3.3100000000000018</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>3.3100000000000018</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>3.3100000000000018</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>3.2800000000000011</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>3.2800000000000011</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>3.2800000000000011</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>3.2800000000000011</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>3.2800000000000011</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>3.2800000000000011</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>3.2800000000000011</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>3.3499999999999939</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>3.5799999999999979</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>3.6800000000000068</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>3.590000000000003</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>3.5400000000000058</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>3.5400000000000058</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>3.5400000000000058</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>3.7800000000000011</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>3.9000000000000061</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>4.0300000000000011</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>3.840000000000003</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>3.840000000000003</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>3.840000000000003</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>3.840000000000003</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>3.7099999999999942</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>3.7099999999999942</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>3.7099999999999942</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>3.7099999999999942</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>3.7099999999999942</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>3.7099999999999942</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>3.7099999999999942</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>4.019999999999996</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>3.8100000000000018</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>3.879999999999995</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>3.879999999999995</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>3.879999999999995</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>3.879999999999995</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>3.879999999999995</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>3.7600000000000051</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>3.7600000000000051</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>3.7600000000000051</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>3.7600000000000051</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>3.859999999999999</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>3.859999999999999</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>3.859999999999999</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>3.859999999999999</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>3.4500000000000028</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>3.4500000000000028</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>3.4500000000000028</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>3.4500000000000028</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>3.4500000000000028</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>3.4500000000000028</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>3.4399999999999982</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>3.5300000000000011</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>3.5400000000000058</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>3.3100000000000018</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>3.3100000000000018</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>3.3100000000000018</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>3.3100000000000018</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>2.980000000000004</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>2.980000000000004</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>2.980000000000004</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>3.090000000000003</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>2.870000000000005</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>2.870000000000005</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>2.870000000000005</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>2.8299999999999979</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>2.8299999999999979</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>2.8299999999999979</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>2.8299999999999979</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>2.8299999999999979</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>2.8299999999999979</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>2.8299999999999979</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>3.159999999999997</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>3.120000000000005</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>3.120000000000005</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>3.5600000000000018</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>3.7099999999999942</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>3.7099999999999942</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>3.7099999999999942</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>3.4699999999999989</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>3.4699999999999989</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>3.4699999999999989</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>3.4699999999999989</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>3.4699999999999989</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>3.4699999999999989</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>3.4699999999999989</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>3.4500000000000028</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>3.4500000000000028</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>3.2800000000000011</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>3.2800000000000011</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>3.2800000000000011</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>3.2800000000000011</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>3.2800000000000011</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>3.0799999999999979</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>3.0799999999999979</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>3.0799999999999979</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>3.0799999999999979</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>3.629999999999995</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>3.629999999999995</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>3.629999999999995</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>4.0600000000000023</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>4.2399999999999949</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>4.1599999999999966</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>4.1099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>4.1099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>4.1099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>4.1099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>5.3799999999999946</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>5.7900000000000063</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>5.7600000000000051</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>5.5300000000000011</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>5.5300000000000011</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>5.5300000000000011</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>5.5300000000000011</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>6.269999999999996</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>6.3299999999999983</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>6.2900000000000063</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>6.1299999999999946</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>6.1299999999999946</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>6.1299999999999946</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>6.1299999999999946</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>6.6400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>7.1299999999999946</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>6.519999999999996</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>6.519999999999996</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>6.519999999999996</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>6.730000000000004</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>7.1400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>7.1400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>7.1400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>6.8400000000000034</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>6.8400000000000034</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RYDAF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$344</c:f>
+              <c:strCache>
+                <c:ptCount val="343"/>
+                <c:pt idx="0">
+                  <c:v>1/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31/1/2020</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>10/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>11/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>12/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>13/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>14/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>15/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>16/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>17/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>18/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>19/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>20/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>21/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>22/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>23/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>24/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>25/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>26/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>27/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>28/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>29/2/2020</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>5/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>7/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>8/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>9/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>10/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>11/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>12/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>13/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>14/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>15/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>16/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>17/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>18/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>19/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>20/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>21/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>22/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>23/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>24/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>25/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>26/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>27/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>28/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>29/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>30/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>31/3/2020</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>3/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>4/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>5/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>6/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>7/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>8/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>9/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>10/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>11/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>12/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>13/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>14/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>15/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>16/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>17/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>18/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>19/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>20/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>21/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>22/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>23/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>24/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>25/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>26/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>27/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>28/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>29/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>30/4/2020</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>3/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>4/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>5/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>6/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>7/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>8/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>9/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>10/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>11/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>12/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>13/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>14/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>15/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>16/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>17/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>18/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>19/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>20/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>21/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>22/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>23/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>24/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>25/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>26/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>27/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>28/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>29/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>30/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>31/5/2020</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>1/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>2/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>3/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>4/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>5/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>6/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>7/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>8/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>9/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>10/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>11/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>12/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>13/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>14/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>15/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>16/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>17/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>18/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>19/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>20/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>21/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>22/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>23/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>24/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>25/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>26/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>27/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>28/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>29/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>30/6/2020</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>1/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>2/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>3/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>4/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>5/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>6/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>7/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>8/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>9/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>10/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>11/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>12/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>13/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>14/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>15/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>16/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>17/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>18/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>19/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>20/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>21/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>22/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>23/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>24/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>25/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>26/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>27/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>28/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>29/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>30/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>31/7/2020</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>1/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>2/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>3/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>4/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>5/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>6/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>7/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>8/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>9/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>10/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>11/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>12/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>13/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>14/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>15/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>16/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>17/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>18/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>19/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>20/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>21/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>22/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>23/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>24/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>25/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>26/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>27/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>28/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>29/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>30/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>31/8/2020</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>1/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>2/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>3/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>4/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>5/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>6/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>7/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>8/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>9/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>10/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>11/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>12/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>13/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>14/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>15/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>16/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>17/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>18/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>19/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>20/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>21/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>22/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>23/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>24/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>25/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>26/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>27/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>28/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>29/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>30/9/2020</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>1/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>2/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>3/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>4/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>5/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>6/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>7/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>8/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>9/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>10/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>11/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>12/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>13/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>14/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>15/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>16/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>17/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>18/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>19/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>20/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>21/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>22/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>23/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>24/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>25/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>26/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>27/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>28/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>29/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>30/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>31/10/2020</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>1/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>2/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>3/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>4/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>5/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>6/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>7/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>8/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>9/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>10/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>11/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>12/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>13/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>14/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>15/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>16/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>17/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>18/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>19/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>20/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>21/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>22/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>23/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>24/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>25/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>26/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>27/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>28/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>29/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>30/11/2020</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>1/12/2020</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>2/12/2020</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>3/12/2020</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>4/12/2020</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>5/12/2020</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>6/12/2020</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>7/12/2020</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>8/12/2020</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$344</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="343"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5600000000000018</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1700000000000021</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1700000000000021</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1700000000000021</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.1700000000000017</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.4399999999999977</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.0400000000000058</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.909999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.87999999999999545</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.87999999999999545</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.87999999999999545</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.5300000000000009</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.159999999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.68000000000000682</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.68000000000000682</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.120000000000005</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.120000000000005</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.120000000000005</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.120000000000005</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-1.9200000000000019</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-1.709999999999994</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.85999999999999943</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-3.4899999999999949</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-3.4899999999999949</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-3.4899999999999949</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-2.0600000000000018</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-2.9500000000000028</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-2.9500000000000028</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-8.4500000000000028</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-10.98</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-10.98</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-10.98</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-11.83</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-10.73999999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-8.7199999999999989</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-9.75</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-9.6800000000000068</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-9.6800000000000068</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-9.6800000000000068</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-11.25</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-12.31</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-11.12</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-11.25</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-13.78</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-13.78</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-13.78</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-13.78</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-13.75</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-12.95999999999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-14.53</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-16.760000000000009</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-16.760000000000009</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-16.760000000000009</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-19.150000000000009</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-21.37</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-21.849999999999991</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-23.97</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-25.099999999999991</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-25.099999999999991</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-25.099999999999991</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-22.98</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-24.45</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-20.52</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-23.73</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-27.42</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-27.42</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-27.42</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-39.15</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-38.090000000000003</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-39.15</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-48.42</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-48.07</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-48.07</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-48.07</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-54.71</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-54.88</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-62.06</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-58.12</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-57.95</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-57.95</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-57.95</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-53.17</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-45.99</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-40.18</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-40.86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-45.24</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-45.24</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-45.24</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-41.95</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-39.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-40.479999999999997</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-32.86</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-37.54</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-37.54</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-37.54</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-37.51</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-35.56</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-34.950000000000003</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-35.22</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-35.22</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-35.22</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>-35.22</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>-35.94</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>-36.93</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>-41.03</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>-44.24</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>-40.69</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>-40.69</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>-40.69</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>-42.74</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>-43.59</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>-40.450000000000003</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>-39.15</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>-40.380000000000003</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>-40.380000000000003</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>-40.380000000000003</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>-39.49</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>-38.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>-35.049999999999997</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>-43.08</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>-46.06</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>-46.06</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>-46.06</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>-44.31</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>-43.46</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>-45</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>-43.7</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>-42.57</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>-42.57</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>-42.57</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>-43.9</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>-44.42</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>-46.16</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>-48.38</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>-47.66</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>-47.66</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>-47.66</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>-44.11</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>-45.03</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>-44.24</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>-43.73</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>-44.76</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>-44.76</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>-44.76</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>-44.76</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>-43.94</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>-44.24</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>-44.04</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>-45.99</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>-45.99</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>-45.99</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>-43.94</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>-42.16</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>-39.729999999999997</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>-39.630000000000003</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>-35.659999999999997</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>-35.659999999999997</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>-35.659999999999997</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>-33</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>-36.07</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>-38.26</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>-42.74</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>-41.44</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>-41.44</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>-41.44</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>-41.37</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>-39.94</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>-41.27</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>-41.68</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>-42.5</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>-42.5</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>-42.5</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>-41.82</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>-41.41</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>-43.63</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>-42.36</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>-44.42</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>-44.42</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>-44.42</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>-44.11</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>-44.48</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>-44.42</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>-44.89</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>-44.89</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>-44.89</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>-44.89</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>-43.7</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>-45.54</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>-45.1</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>-46.71</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>-46.33</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>-46.33</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>-46.33</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>-45.61</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>-43.73</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>-43.12</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>-44.04</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>-44.48</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>-44.48</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>-44.48</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>-45.24</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>-43.73</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>-45.17</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>-45.06</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>-44.93</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>-44.93</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>-44.93</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>-45.1</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>-45.34</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>-45.37</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>-47.53</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>-49.1</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>-49.1</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>-49.1</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>-48.72</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>-47.53</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>-47.01</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>-47.49</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>-47.77</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>-47.77</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>-47.77</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>-46.5</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>-45.89</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>-45.17</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>-46.23</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>-47.05</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>-47.05</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>-47.05</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>-47.7</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>-48.04</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>-48.72</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>-49.41</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>-49.71</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>-49.71</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>-49.71</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>-48.18</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>-49.24</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>-48.93</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>-49.61</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>-49.06</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>-49.06</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>-49.06</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>-49.65</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>-50.98</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>-51.22</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>-51.12</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>-50.64</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>-50.64</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>-50.64</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>-50.64</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>-52.65</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>-51.32</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>-52.83</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>-52.69</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>-52.69</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>-52.69</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>-52.76</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>-52.31</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>-52.28</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>-53.34</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>-54.19</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>-54.19</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>-54.19</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>-55.73</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>-55.05</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>-55.56</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>-55.05</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>-56.04</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>-56.04</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>-56.04</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>-56.24</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>-56.93</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>-57.3</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>-59.05</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>-58.47</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>-58.47</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>-58.47</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>-57.1</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>-57.27</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>-57.27</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>-55.39</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>-54.71</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>-54.71</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>-54.71</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>-55.8</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>-56.07</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>-56.11</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>-57.24</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>-57.37</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>-57.37</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>-57.37</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>-57.44</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>-57.44</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>-58.16</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>-57.13</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>-57.13</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>-57.13</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>-57.13</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>-57.99</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>-59.01</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>-60.42</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>-59.12</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>-56.89</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>-56.89</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>-56.89</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>-55.05</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>-54.23</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>-54.57</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>-54.81</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>-54.53</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>-54.53</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>-54.53</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>-48.76</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>-46.67</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>-46.84</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>-48.04</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>-47.8</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>-47.8</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>-47.8</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>-43.97</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>-43.59</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>-43.83</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>-44.72</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>-43.53</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>-43.53</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>-43.53</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>-40.65</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>-37.75</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>-38.53</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>-38.53</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>-39.590000000000003</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>-39.590000000000003</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>-39.590000000000003</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>-42.53</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>-40.86</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>-39.08</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>-37.78</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>-35.25</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>-35.25</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>-35.25</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>-37.17</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>-36.96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="514620616"/>
+        <c:axId val="514617480"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="514620616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="514617480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="514617480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="514620616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>171449</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafiek 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Kantoor">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1148,9 +6220,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Kantoor">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1182,9 +6254,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1216,9 +6289,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Kantoor">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1391,14 +6465,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C344"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1409,7 +6485,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1420,7 +6496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1428,120 +6504,120 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>2.560000000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>2.5600000000000018</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4">
-        <v>0.06000000000000227</v>
+        <v>6.0000000000002267E-2</v>
       </c>
       <c r="C4">
-        <v>3.170000000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>3.1700000000000021</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5">
-        <v>0.06000000000000227</v>
+        <v>6.0000000000002267E-2</v>
       </c>
       <c r="C5">
-        <v>3.170000000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>3.1700000000000021</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6">
-        <v>0.06000000000000227</v>
+        <v>6.0000000000002267E-2</v>
       </c>
       <c r="C6">
-        <v>3.170000000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>3.1700000000000021</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7">
-        <v>0.1500000000000057</v>
+        <v>0.15000000000000571</v>
       </c>
       <c r="C7">
-        <v>4.170000000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>4.1700000000000017</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8">
-        <v>0.1800000000000068</v>
+        <v>0.18000000000000679</v>
       </c>
       <c r="C8">
-        <v>4.439999999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>4.4399999999999977</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9">
-        <v>0.04000000000000625</v>
+        <v>4.0000000000006253E-2</v>
       </c>
       <c r="C9">
-        <v>3.040000000000006</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>3.0400000000000058</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10">
-        <v>0.04000000000000625</v>
+        <v>4.0000000000006253E-2</v>
       </c>
       <c r="C10">
         <v>1.909999999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11">
-        <v>0.04000000000000625</v>
+        <v>4.0000000000006253E-2</v>
       </c>
       <c r="C11">
-        <v>0.8799999999999955</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>0.87999999999999545</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="B12">
-        <v>0.04000000000000625</v>
+        <v>4.0000000000006253E-2</v>
       </c>
       <c r="C12">
-        <v>0.8799999999999955</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>0.87999999999999545</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
       <c r="B13">
-        <v>0.04000000000000625</v>
+        <v>4.0000000000006253E-2</v>
       </c>
       <c r="C13">
-        <v>0.8799999999999955</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>0.87999999999999545</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1549,461 +6625,461 @@
         <v>0.1099999999999994</v>
       </c>
       <c r="C14">
-        <v>1.530000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>1.5300000000000009</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
       <c r="B15">
-        <v>0.06999999999999318</v>
+        <v>6.9999999999993179E-2</v>
       </c>
       <c r="C15">
         <v>1.159999999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
       <c r="B16">
-        <v>0.01999999999999602</v>
+        <v>1.9999999999996021E-2</v>
       </c>
       <c r="C16">
-        <v>0.6800000000000068</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>0.68000000000000682</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
       <c r="B17">
-        <v>0.01999999999999602</v>
+        <v>1.9999999999996021E-2</v>
       </c>
       <c r="C17">
-        <v>0.6800000000000068</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>0.68000000000000682</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
       <c r="B18">
-        <v>0.01999999999999602</v>
+        <v>1.9999999999996021E-2</v>
       </c>
       <c r="C18">
         <v>1.120000000000005</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
       <c r="B19">
-        <v>0.01999999999999602</v>
+        <v>1.9999999999996021E-2</v>
       </c>
       <c r="C19">
         <v>1.120000000000005</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
       <c r="B20">
-        <v>0.01999999999999602</v>
+        <v>1.9999999999996021E-2</v>
       </c>
       <c r="C20">
         <v>1.120000000000005</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
       <c r="B21">
-        <v>0.01999999999999602</v>
+        <v>1.9999999999996021E-2</v>
       </c>
       <c r="C21">
         <v>1.120000000000005</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.2800000000000011</v>
+        <v>-0.28000000000000108</v>
       </c>
       <c r="C22">
-        <v>-1.920000000000002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>-1.9200000000000019</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.2800000000000011</v>
+        <v>-0.28000000000000108</v>
       </c>
       <c r="C23">
         <v>-1.709999999999994</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.2800000000000011</v>
+        <v>-0.28000000000000108</v>
       </c>
       <c r="C24">
-        <v>-0.8599999999999994</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>-0.85999999999999943</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.5400000000000063</v>
+        <v>-0.54000000000000625</v>
       </c>
       <c r="C25">
-        <v>-3.489999999999995</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>-3.4899999999999949</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.5400000000000063</v>
+        <v>-0.54000000000000625</v>
       </c>
       <c r="C26">
-        <v>-3.489999999999995</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>-3.4899999999999949</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>28</v>
       </c>
       <c r="B27">
-        <v>-0.5400000000000063</v>
+        <v>-0.54000000000000625</v>
       </c>
       <c r="C27">
-        <v>-3.489999999999995</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>-3.4899999999999949</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.3900000000000006</v>
+        <v>-0.39000000000000062</v>
       </c>
       <c r="C28">
-        <v>-2.060000000000002</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>-2.0600000000000018</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.4899999999999949</v>
+        <v>-0.48999999999999488</v>
       </c>
       <c r="C29">
-        <v>-2.950000000000003</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>-2.9500000000000028</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.4899999999999949</v>
+        <v>-0.48999999999999488</v>
       </c>
       <c r="C30">
-        <v>-2.950000000000003</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>-2.9500000000000028</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>32</v>
       </c>
       <c r="B31">
-        <v>-0.4899999999999949</v>
+        <v>-0.48999999999999488</v>
       </c>
       <c r="C31">
-        <v>-8.450000000000003</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>-8.4500000000000028</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>33</v>
       </c>
       <c r="B32">
-        <v>-0.4899999999999949</v>
+        <v>-0.48999999999999488</v>
       </c>
       <c r="C32">
         <v>-10.98</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.4899999999999949</v>
+        <v>-0.48999999999999488</v>
       </c>
       <c r="C33">
         <v>-10.98</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.4899999999999949</v>
+        <v>-0.48999999999999488</v>
       </c>
       <c r="C34">
         <v>-10.98</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>36</v>
       </c>
       <c r="B35">
-        <v>-0.4899999999999949</v>
+        <v>-0.48999999999999488</v>
       </c>
       <c r="C35">
         <v>-11.83</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.4899999999999949</v>
+        <v>-0.48999999999999488</v>
       </c>
       <c r="C36">
         <v>-10.73999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>38</v>
       </c>
       <c r="B37">
-        <v>-0.2600000000000051</v>
+        <v>-0.26000000000000512</v>
       </c>
       <c r="C37">
-        <v>-8.719999999999999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>-8.7199999999999989</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>39</v>
       </c>
       <c r="B38">
-        <v>-0.3700000000000045</v>
+        <v>-0.37000000000000449</v>
       </c>
       <c r="C38">
         <v>-9.75</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.3599999999999994</v>
+        <v>-0.35999999999999938</v>
       </c>
       <c r="C39">
-        <v>-9.680000000000007</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>-9.6800000000000068</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.3599999999999994</v>
+        <v>-0.35999999999999938</v>
       </c>
       <c r="C40">
-        <v>-9.680000000000007</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>-9.6800000000000068</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>42</v>
       </c>
       <c r="B41">
-        <v>-0.3599999999999994</v>
+        <v>-0.35999999999999938</v>
       </c>
       <c r="C41">
-        <v>-9.680000000000007</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>-9.6800000000000068</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>43</v>
       </c>
       <c r="B42">
-        <v>-0.5400000000000063</v>
+        <v>-0.54000000000000625</v>
       </c>
       <c r="C42">
         <v>-11.25</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.5400000000000063</v>
+        <v>-0.54000000000000625</v>
       </c>
       <c r="C43">
         <v>-12.31</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.5400000000000063</v>
+        <v>-0.54000000000000625</v>
       </c>
       <c r="C44">
         <v>-11.12</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>46</v>
       </c>
       <c r="B45">
-        <v>-0.5499999999999972</v>
+        <v>-0.54999999999999716</v>
       </c>
       <c r="C45">
         <v>-11.25</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.8400000000000034</v>
+        <v>-0.84000000000000341</v>
       </c>
       <c r="C46">
         <v>-13.78</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>48</v>
       </c>
       <c r="B47">
-        <v>-0.8400000000000034</v>
+        <v>-0.84000000000000341</v>
       </c>
       <c r="C47">
         <v>-13.78</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>49</v>
       </c>
       <c r="B48">
-        <v>-0.8400000000000034</v>
+        <v>-0.84000000000000341</v>
       </c>
       <c r="C48">
         <v>-13.78</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.8400000000000034</v>
+        <v>-0.84000000000000341</v>
       </c>
       <c r="C49">
         <v>-13.78</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.8299999999999983</v>
+        <v>-0.82999999999999829</v>
       </c>
       <c r="C50">
         <v>-13.75</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>52</v>
       </c>
       <c r="B51">
-        <v>-0.7399999999999949</v>
+        <v>-0.73999999999999488</v>
       </c>
       <c r="C51">
         <v>-12.95999999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>53</v>
       </c>
       <c r="B52">
-        <v>-0.9200000000000017</v>
+        <v>-0.92000000000000171</v>
       </c>
       <c r="C52">
         <v>-14.53</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>54</v>
       </c>
       <c r="B53">
-        <v>-0.9200000000000017</v>
+        <v>-0.92000000000000171</v>
       </c>
       <c r="C53">
-        <v>-16.76000000000001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>-16.760000000000009</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>55</v>
       </c>
       <c r="B54">
-        <v>-0.9200000000000017</v>
+        <v>-0.92000000000000171</v>
       </c>
       <c r="C54">
-        <v>-16.76000000000001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>-16.760000000000009</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.9200000000000017</v>
+        <v>-0.92000000000000171</v>
       </c>
       <c r="C55">
-        <v>-16.76000000000001</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>-16.760000000000009</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>57</v>
       </c>
@@ -2011,10 +7087,10 @@
         <v>-1.209999999999994</v>
       </c>
       <c r="C56">
-        <v>-19.15000000000001</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>-19.150000000000009</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>58</v>
       </c>
@@ -2025,7 +7101,7 @@
         <v>-21.37</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>59</v>
       </c>
@@ -2033,10 +7109,10 @@
         <v>-1.209999999999994</v>
       </c>
       <c r="C58">
-        <v>-21.84999999999999</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>-21.849999999999991</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>60</v>
       </c>
@@ -2047,7 +7123,7 @@
         <v>-23.97</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>61</v>
       </c>
@@ -2055,10 +7131,10 @@
         <v>-1.209999999999994</v>
       </c>
       <c r="C60">
-        <v>-25.09999999999999</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>-25.099999999999991</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>62</v>
       </c>
@@ -2066,10 +7142,10 @@
         <v>-1.209999999999994</v>
       </c>
       <c r="C61">
-        <v>-25.09999999999999</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>-25.099999999999991</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>63</v>
       </c>
@@ -2077,21 +7153,21 @@
         <v>-1.209999999999994</v>
       </c>
       <c r="C62">
-        <v>-25.09999999999999</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>-25.099999999999991</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.9300000000000068</v>
+        <v>-0.93000000000000682</v>
       </c>
       <c r="C63">
         <v>-22.98</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>65</v>
       </c>
@@ -2102,18 +7178,18 @@
         <v>-24.45</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>66</v>
       </c>
       <c r="B65">
-        <v>-0.5999999999999943</v>
+        <v>-0.59999999999999432</v>
       </c>
       <c r="C65">
         <v>-20.52</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>67</v>
       </c>
@@ -2124,7 +7200,7 @@
         <v>-23.73</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>68</v>
       </c>
@@ -2135,7 +7211,7 @@
         <v>-27.42</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>69</v>
       </c>
@@ -2146,7 +7222,7 @@
         <v>-27.42</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>70</v>
       </c>
@@ -2157,7 +7233,7 @@
         <v>-27.42</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>71</v>
       </c>
@@ -2168,7 +7244,7 @@
         <v>-39.15</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>72</v>
       </c>
@@ -2176,10 +7252,10 @@
         <v>-2.620000000000005</v>
       </c>
       <c r="C71">
-        <v>-38.09</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>-38.090000000000003</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>73</v>
       </c>
@@ -2190,7 +7266,7 @@
         <v>-39.15</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>74</v>
       </c>
@@ -2201,7 +7277,7 @@
         <v>-48.42</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>75</v>
       </c>
@@ -2212,7 +7288,7 @@
         <v>-48.07</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>76</v>
       </c>
@@ -2223,7 +7299,7 @@
         <v>-48.07</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>77</v>
       </c>
@@ -2234,7 +7310,7 @@
         <v>-48.07</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>78</v>
       </c>
@@ -2245,7 +7321,7 @@
         <v>-54.71</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>79</v>
       </c>
@@ -2256,7 +7332,7 @@
         <v>-54.88</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>80</v>
       </c>
@@ -2267,7 +7343,7 @@
         <v>-62.06</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>81</v>
       </c>
@@ -2278,161 +7354,161 @@
         <v>-58.12</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>82</v>
       </c>
       <c r="B81">
-        <v>-2.579999999999998</v>
+        <v>-2.5799999999999979</v>
       </c>
       <c r="C81">
         <v>-57.95</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>83</v>
       </c>
       <c r="B82">
-        <v>-2.579999999999998</v>
+        <v>-2.5799999999999979</v>
       </c>
       <c r="C82">
         <v>-57.95</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>84</v>
       </c>
       <c r="B83">
-        <v>-2.579999999999998</v>
+        <v>-2.5799999999999979</v>
       </c>
       <c r="C83">
         <v>-57.95</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>85</v>
       </c>
       <c r="B84">
-        <v>-1.439999999999998</v>
+        <v>-1.4399999999999979</v>
       </c>
       <c r="C84">
         <v>-53.17</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>86</v>
       </c>
       <c r="B85">
-        <v>0.09000000000000341</v>
+        <v>9.0000000000003411E-2</v>
       </c>
       <c r="C85">
         <v>-45.99</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>87</v>
       </c>
       <c r="B86">
-        <v>1.170000000000002</v>
+        <v>1.1700000000000019</v>
       </c>
       <c r="C86">
         <v>-40.18</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>88</v>
       </c>
       <c r="B87">
-        <v>1.049999999999997</v>
+        <v>1.0499999999999969</v>
       </c>
       <c r="C87">
         <v>-40.86</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>89</v>
       </c>
       <c r="B88">
-        <v>0.3100000000000023</v>
+        <v>0.31000000000000227</v>
       </c>
       <c r="C88">
         <v>-45.24</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>90</v>
       </c>
       <c r="B89">
-        <v>0.3100000000000023</v>
+        <v>0.31000000000000227</v>
       </c>
       <c r="C89">
         <v>-45.24</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>91</v>
       </c>
       <c r="B90">
-        <v>0.3100000000000023</v>
+        <v>0.31000000000000227</v>
       </c>
       <c r="C90">
         <v>-45.24</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>92</v>
       </c>
       <c r="B91">
-        <v>0.9099999999999966</v>
+        <v>0.90999999999999659</v>
       </c>
       <c r="C91">
         <v>-41.95</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>93</v>
       </c>
       <c r="B92">
-        <v>1.280000000000001</v>
+        <v>1.2800000000000009</v>
       </c>
       <c r="C92">
-        <v>-39.8</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>-39.799999999999997</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>94</v>
       </c>
       <c r="B93">
-        <v>1.170000000000002</v>
+        <v>1.1700000000000019</v>
       </c>
       <c r="C93">
-        <v>-40.48</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>-40.479999999999997</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>95</v>
       </c>
       <c r="B94">
-        <v>2.450000000000003</v>
+        <v>2.4500000000000028</v>
       </c>
       <c r="C94">
         <v>-32.86</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>96</v>
       </c>
@@ -2443,7 +7519,7 @@
         <v>-37.54</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>97</v>
       </c>
@@ -2454,7 +7530,7 @@
         <v>-37.54</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>98</v>
       </c>
@@ -2465,40 +7541,40 @@
         <v>-37.54</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>99</v>
       </c>
       <c r="B98">
-        <v>1.760000000000005</v>
+        <v>1.7600000000000049</v>
       </c>
       <c r="C98">
         <v>-37.51</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>100</v>
       </c>
       <c r="B99">
-        <v>2.069999999999993</v>
+        <v>2.0699999999999932</v>
       </c>
       <c r="C99">
         <v>-35.56</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>101</v>
       </c>
       <c r="B100">
-        <v>2.170000000000002</v>
+        <v>2.1700000000000021</v>
       </c>
       <c r="C100">
-        <v>-34.95</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>-34.950000000000003</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>102</v>
       </c>
@@ -2509,7 +7585,7 @@
         <v>-35.22</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>103</v>
       </c>
@@ -2520,7 +7596,7 @@
         <v>-35.22</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>104</v>
       </c>
@@ -2531,7 +7607,7 @@
         <v>-35.22</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>105</v>
       </c>
@@ -2542,117 +7618,117 @@
         <v>-35.22</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>106</v>
       </c>
       <c r="B105">
-        <v>2.010000000000005</v>
+        <v>2.0100000000000051</v>
       </c>
       <c r="C105">
         <v>-35.94</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>107</v>
       </c>
       <c r="B106">
-        <v>2.010000000000005</v>
+        <v>2.0100000000000051</v>
       </c>
       <c r="C106">
         <v>-36.93</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>108</v>
       </c>
       <c r="B107">
-        <v>2.010000000000005</v>
+        <v>2.0100000000000051</v>
       </c>
       <c r="C107">
         <v>-41.03</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>109</v>
       </c>
       <c r="B108">
-        <v>2.010000000000005</v>
+        <v>2.0100000000000051</v>
       </c>
       <c r="C108">
         <v>-44.24</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>110</v>
       </c>
       <c r="B109">
-        <v>2.010000000000005</v>
+        <v>2.0100000000000051</v>
       </c>
       <c r="C109">
         <v>-40.69</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>111</v>
       </c>
       <c r="B110">
-        <v>2.010000000000005</v>
+        <v>2.0100000000000051</v>
       </c>
       <c r="C110">
         <v>-40.69</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>112</v>
       </c>
       <c r="B111">
-        <v>2.010000000000005</v>
+        <v>2.0100000000000051</v>
       </c>
       <c r="C111">
         <v>-40.69</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>113</v>
       </c>
       <c r="B112">
-        <v>1.670000000000002</v>
+        <v>1.6700000000000019</v>
       </c>
       <c r="C112">
         <v>-42.74</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>114</v>
       </c>
       <c r="B113">
-        <v>1.670000000000002</v>
+        <v>1.6700000000000019</v>
       </c>
       <c r="C113">
         <v>-43.59</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>115</v>
       </c>
       <c r="B114">
-        <v>1.670000000000002</v>
+        <v>1.6700000000000019</v>
       </c>
       <c r="C114">
-        <v>-40.45</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
+        <v>-40.450000000000003</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>116</v>
       </c>
@@ -2663,7 +7739,7 @@
         <v>-39.15</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>117</v>
       </c>
@@ -2671,10 +7747,10 @@
         <v>1.680000000000007</v>
       </c>
       <c r="C116">
-        <v>-40.38</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
+        <v>-40.380000000000003</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>118</v>
       </c>
@@ -2682,10 +7758,10 @@
         <v>1.680000000000007</v>
       </c>
       <c r="C117">
-        <v>-40.38</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
+        <v>-40.380000000000003</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>119</v>
       </c>
@@ -2693,43 +7769,43 @@
         <v>1.680000000000007</v>
       </c>
       <c r="C118">
-        <v>-40.38</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
+        <v>-40.380000000000003</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>120</v>
       </c>
       <c r="B119">
-        <v>1.829999999999998</v>
+        <v>1.8299999999999981</v>
       </c>
       <c r="C119">
         <v>-39.49</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>121</v>
       </c>
       <c r="B120">
-        <v>2.030000000000001</v>
+        <v>2.0300000000000011</v>
       </c>
       <c r="C120">
-        <v>-38.3</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
+        <v>-38.299999999999997</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>122</v>
       </c>
       <c r="B121">
-        <v>2.560000000000002</v>
+        <v>2.5600000000000018</v>
       </c>
       <c r="C121">
-        <v>-35.05</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
+        <v>-35.049999999999997</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>123</v>
       </c>
@@ -2740,7 +7816,7 @@
         <v>-43.08</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>124</v>
       </c>
@@ -2751,7 +7827,7 @@
         <v>-46.06</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>125</v>
       </c>
@@ -2762,7 +7838,7 @@
         <v>-46.06</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>126</v>
       </c>
@@ -2773,7 +7849,7 @@
         <v>-46.06</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>127</v>
       </c>
@@ -2784,40 +7860,40 @@
         <v>-44.31</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>128</v>
       </c>
       <c r="B127">
-        <v>1.799999999999997</v>
+        <v>1.7999999999999969</v>
       </c>
       <c r="C127">
         <v>-43.46</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>129</v>
       </c>
       <c r="B128">
-        <v>1.530000000000001</v>
+        <v>1.5300000000000009</v>
       </c>
       <c r="C128">
         <v>-45</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>130</v>
       </c>
       <c r="B129">
-        <v>1.530000000000001</v>
+        <v>1.5300000000000009</v>
       </c>
       <c r="C129">
         <v>-43.7</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>131</v>
       </c>
@@ -2828,7 +7904,7 @@
         <v>-42.57</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>132</v>
       </c>
@@ -2839,7 +7915,7 @@
         <v>-42.57</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>133</v>
       </c>
@@ -2850,205 +7926,205 @@
         <v>-42.57</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>134</v>
       </c>
       <c r="B133">
-        <v>1.489999999999995</v>
+        <v>1.4899999999999951</v>
       </c>
       <c r="C133">
         <v>-43.9</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>135</v>
       </c>
       <c r="B134">
-        <v>1.489999999999995</v>
+        <v>1.4899999999999951</v>
       </c>
       <c r="C134">
         <v>-44.42</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>136</v>
       </c>
       <c r="B135">
-        <v>1.489999999999995</v>
+        <v>1.4899999999999951</v>
       </c>
       <c r="C135">
         <v>-46.16</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>137</v>
       </c>
       <c r="B136">
-        <v>1.489999999999995</v>
+        <v>1.4899999999999951</v>
       </c>
       <c r="C136">
         <v>-48.38</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>138</v>
       </c>
       <c r="B137">
-        <v>1.489999999999995</v>
+        <v>1.4899999999999951</v>
       </c>
       <c r="C137">
         <v>-47.66</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>139</v>
       </c>
       <c r="B138">
-        <v>1.489999999999995</v>
+        <v>1.4899999999999951</v>
       </c>
       <c r="C138">
         <v>-47.66</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>140</v>
       </c>
       <c r="B139">
-        <v>1.489999999999995</v>
+        <v>1.4899999999999951</v>
       </c>
       <c r="C139">
         <v>-47.66</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>141</v>
       </c>
       <c r="B140">
-        <v>2.170000000000002</v>
+        <v>2.1700000000000021</v>
       </c>
       <c r="C140">
         <v>-44.11</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>142</v>
       </c>
       <c r="B141">
-        <v>2.010000000000005</v>
+        <v>2.0100000000000051</v>
       </c>
       <c r="C141">
         <v>-45.03</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>143</v>
       </c>
       <c r="B142">
-        <v>2.150000000000006</v>
+        <v>2.1500000000000061</v>
       </c>
       <c r="C142">
         <v>-44.24</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>144</v>
       </c>
       <c r="B143">
-        <v>2.239999999999995</v>
+        <v>2.2399999999999949</v>
       </c>
       <c r="C143">
         <v>-43.73</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>145</v>
       </c>
       <c r="B144">
-        <v>2.060000000000002</v>
+        <v>2.0600000000000018</v>
       </c>
       <c r="C144">
         <v>-44.76</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>146</v>
       </c>
       <c r="B145">
-        <v>2.060000000000002</v>
+        <v>2.0600000000000018</v>
       </c>
       <c r="C145">
         <v>-44.76</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>147</v>
       </c>
       <c r="B146">
-        <v>2.060000000000002</v>
+        <v>2.0600000000000018</v>
       </c>
       <c r="C146">
         <v>-44.76</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>148</v>
       </c>
       <c r="B147">
-        <v>2.060000000000002</v>
+        <v>2.0600000000000018</v>
       </c>
       <c r="C147">
         <v>-44.76</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>149</v>
       </c>
       <c r="B148">
-        <v>2.209999999999994</v>
+        <v>2.2099999999999942</v>
       </c>
       <c r="C148">
         <v>-43.94</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>150</v>
       </c>
       <c r="B149">
-        <v>2.150000000000006</v>
+        <v>2.1500000000000061</v>
       </c>
       <c r="C149">
         <v>-44.24</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>151</v>
       </c>
       <c r="B150">
-        <v>2.189999999999998</v>
+        <v>2.1899999999999982</v>
       </c>
       <c r="C150">
         <v>-44.04</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>152</v>
       </c>
@@ -3059,7 +8135,7 @@
         <v>-45.99</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>153</v>
       </c>
@@ -3070,7 +8146,7 @@
         <v>-45.99</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>154</v>
       </c>
@@ -3081,40 +8157,40 @@
         <v>-45.99</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>155</v>
       </c>
       <c r="B154">
-        <v>2.219999999999999</v>
+        <v>2.2199999999999989</v>
       </c>
       <c r="C154">
         <v>-43.94</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>156</v>
       </c>
       <c r="B155">
-        <v>2.540000000000006</v>
+        <v>2.5400000000000058</v>
       </c>
       <c r="C155">
         <v>-42.16</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>157</v>
       </c>
       <c r="B156">
-        <v>2.959999999999994</v>
+        <v>2.9599999999999942</v>
       </c>
       <c r="C156">
-        <v>-39.73</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3">
+        <v>-39.729999999999997</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>158</v>
       </c>
@@ -3122,10 +8198,10 @@
         <v>2.980000000000004</v>
       </c>
       <c r="C157">
-        <v>-39.63</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3">
+        <v>-39.630000000000003</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>159</v>
       </c>
@@ -3133,10 +8209,10 @@
         <v>3.629999999999995</v>
       </c>
       <c r="C158">
-        <v>-35.66</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3">
+        <v>-35.659999999999997</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>160</v>
       </c>
@@ -3144,10 +8220,10 @@
         <v>3.629999999999995</v>
       </c>
       <c r="C159">
-        <v>-35.66</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3">
+        <v>-35.659999999999997</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>161</v>
       </c>
@@ -3155,21 +8231,21 @@
         <v>3.629999999999995</v>
       </c>
       <c r="C160">
-        <v>-35.66</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3">
+        <v>-35.659999999999997</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>162</v>
       </c>
       <c r="B161">
-        <v>4.049999999999997</v>
+        <v>4.0499999999999972</v>
       </c>
       <c r="C161">
         <v>-33</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>163</v>
       </c>
@@ -3180,7 +8256,7 @@
         <v>-36.07</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>164</v>
       </c>
@@ -3191,7 +8267,7 @@
         <v>-38.26</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>165</v>
       </c>
@@ -3202,7 +8278,7 @@
         <v>-42.74</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>166</v>
       </c>
@@ -3213,7 +8289,7 @@
         <v>-41.44</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>167</v>
       </c>
@@ -3224,7 +8300,7 @@
         <v>-41.44</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>168</v>
       </c>
@@ -3235,29 +8311,29 @@
         <v>-41.44</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>169</v>
       </c>
       <c r="B168">
-        <v>3.599999999999994</v>
+        <v>3.5999999999999939</v>
       </c>
       <c r="C168">
         <v>-41.37</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>170</v>
       </c>
       <c r="B169">
-        <v>3.849999999999994</v>
+        <v>3.8499999999999939</v>
       </c>
       <c r="C169">
         <v>-39.94</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>171</v>
       </c>
@@ -3268,73 +8344,73 @@
         <v>-41.27</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>172</v>
       </c>
       <c r="B171">
-        <v>3.549999999999997</v>
+        <v>3.5499999999999972</v>
       </c>
       <c r="C171">
         <v>-41.68</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>173</v>
       </c>
       <c r="B172">
-        <v>3.549999999999997</v>
+        <v>3.5499999999999972</v>
       </c>
       <c r="C172">
         <v>-42.5</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>174</v>
       </c>
       <c r="B173">
-        <v>3.549999999999997</v>
+        <v>3.5499999999999972</v>
       </c>
       <c r="C173">
         <v>-42.5</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>175</v>
       </c>
       <c r="B174">
-        <v>3.549999999999997</v>
+        <v>3.5499999999999972</v>
       </c>
       <c r="C174">
         <v>-42.5</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>176</v>
       </c>
       <c r="B175">
-        <v>3.670000000000002</v>
+        <v>3.6700000000000021</v>
       </c>
       <c r="C175">
         <v>-41.82</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>177</v>
       </c>
       <c r="B176">
-        <v>3.739999999999995</v>
+        <v>3.7399999999999949</v>
       </c>
       <c r="C176">
         <v>-41.41</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>178</v>
       </c>
@@ -3345,7 +8421,7 @@
         <v>-43.63</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>179</v>
       </c>
@@ -3356,7 +8432,7 @@
         <v>-42.36</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>180</v>
       </c>
@@ -3367,7 +8443,7 @@
         <v>-44.42</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>181</v>
       </c>
@@ -3378,7 +8454,7 @@
         <v>-44.42</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>182</v>
       </c>
@@ -3389,29 +8465,29 @@
         <v>-44.42</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>183</v>
       </c>
       <c r="B182">
-        <v>3.420000000000002</v>
+        <v>3.4200000000000021</v>
       </c>
       <c r="C182">
         <v>-44.11</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>184</v>
       </c>
       <c r="B183">
-        <v>3.349999999999994</v>
+        <v>3.3499999999999939</v>
       </c>
       <c r="C183">
         <v>-44.48</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>185</v>
       </c>
@@ -3422,7 +8498,7 @@
         <v>-44.42</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>186</v>
       </c>
@@ -3433,7 +8509,7 @@
         <v>-44.89</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>187</v>
       </c>
@@ -3444,7 +8520,7 @@
         <v>-44.89</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>188</v>
       </c>
@@ -3455,7 +8531,7 @@
         <v>-44.89</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>189</v>
       </c>
@@ -3466,18 +8542,18 @@
         <v>-44.89</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>190</v>
       </c>
       <c r="B189">
-        <v>3.579999999999998</v>
+        <v>3.5799999999999979</v>
       </c>
       <c r="C189">
         <v>-43.7</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>191</v>
       </c>
@@ -3488,7 +8564,7 @@
         <v>-45.54</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>192</v>
       </c>
@@ -3499,7 +8575,7 @@
         <v>-45.1</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>193</v>
       </c>
@@ -3510,7 +8586,7 @@
         <v>-46.71</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>194</v>
       </c>
@@ -3521,7 +8597,7 @@
         <v>-46.33</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>195</v>
       </c>
@@ -3532,7 +8608,7 @@
         <v>-46.33</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>196</v>
       </c>
@@ -3543,7 +8619,7 @@
         <v>-46.33</v>
       </c>
     </row>
-    <row r="196" spans="1:3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>197</v>
       </c>
@@ -3554,7 +8630,7 @@
         <v>-45.61</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>198</v>
       </c>
@@ -3565,7 +8641,7 @@
         <v>-43.73</v>
       </c>
     </row>
-    <row r="198" spans="1:3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>199</v>
       </c>
@@ -3576,238 +8652,238 @@
         <v>-43.12</v>
       </c>
     </row>
-    <row r="199" spans="1:3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>200</v>
       </c>
       <c r="B199">
-        <v>3.680000000000007</v>
+        <v>3.6800000000000068</v>
       </c>
       <c r="C199">
         <v>-44.04</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>201</v>
       </c>
       <c r="B200">
-        <v>3.680000000000007</v>
+        <v>3.6800000000000068</v>
       </c>
       <c r="C200">
         <v>-44.48</v>
       </c>
     </row>
-    <row r="201" spans="1:3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>202</v>
       </c>
       <c r="B201">
-        <v>3.680000000000007</v>
+        <v>3.6800000000000068</v>
       </c>
       <c r="C201">
         <v>-44.48</v>
       </c>
     </row>
-    <row r="202" spans="1:3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>203</v>
       </c>
       <c r="B202">
-        <v>3.680000000000007</v>
+        <v>3.6800000000000068</v>
       </c>
       <c r="C202">
         <v>-44.48</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>204</v>
       </c>
       <c r="B203">
-        <v>3.540000000000006</v>
+        <v>3.5400000000000058</v>
       </c>
       <c r="C203">
         <v>-45.24</v>
       </c>
     </row>
-    <row r="204" spans="1:3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>205</v>
       </c>
       <c r="B204">
-        <v>3.540000000000006</v>
+        <v>3.5400000000000058</v>
       </c>
       <c r="C204">
         <v>-43.73</v>
       </c>
     </row>
-    <row r="205" spans="1:3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>206</v>
       </c>
       <c r="B205">
-        <v>3.290000000000006</v>
+        <v>3.2900000000000058</v>
       </c>
       <c r="C205">
         <v>-45.17</v>
       </c>
     </row>
-    <row r="206" spans="1:3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>207</v>
       </c>
       <c r="B206">
-        <v>3.310000000000002</v>
+        <v>3.3100000000000018</v>
       </c>
       <c r="C206">
         <v>-45.06</v>
       </c>
     </row>
-    <row r="207" spans="1:3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>208</v>
       </c>
       <c r="B207">
-        <v>3.310000000000002</v>
+        <v>3.3100000000000018</v>
       </c>
       <c r="C207">
         <v>-44.93</v>
       </c>
     </row>
-    <row r="208" spans="1:3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>209</v>
       </c>
       <c r="B208">
-        <v>3.310000000000002</v>
+        <v>3.3100000000000018</v>
       </c>
       <c r="C208">
         <v>-44.93</v>
       </c>
     </row>
-    <row r="209" spans="1:3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>210</v>
       </c>
       <c r="B209">
-        <v>3.310000000000002</v>
+        <v>3.3100000000000018</v>
       </c>
       <c r="C209">
         <v>-44.93</v>
       </c>
     </row>
-    <row r="210" spans="1:3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>211</v>
       </c>
       <c r="B210">
-        <v>3.280000000000001</v>
+        <v>3.2800000000000011</v>
       </c>
       <c r="C210">
         <v>-45.1</v>
       </c>
     </row>
-    <row r="211" spans="1:3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>212</v>
       </c>
       <c r="B211">
-        <v>3.280000000000001</v>
+        <v>3.2800000000000011</v>
       </c>
       <c r="C211">
         <v>-45.34</v>
       </c>
     </row>
-    <row r="212" spans="1:3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>213</v>
       </c>
       <c r="B212">
-        <v>3.280000000000001</v>
+        <v>3.2800000000000011</v>
       </c>
       <c r="C212">
         <v>-45.37</v>
       </c>
     </row>
-    <row r="213" spans="1:3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>214</v>
       </c>
       <c r="B213">
-        <v>3.280000000000001</v>
+        <v>3.2800000000000011</v>
       </c>
       <c r="C213">
         <v>-47.53</v>
       </c>
     </row>
-    <row r="214" spans="1:3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>215</v>
       </c>
       <c r="B214">
-        <v>3.280000000000001</v>
+        <v>3.2800000000000011</v>
       </c>
       <c r="C214">
         <v>-49.1</v>
       </c>
     </row>
-    <row r="215" spans="1:3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>216</v>
       </c>
       <c r="B215">
-        <v>3.280000000000001</v>
+        <v>3.2800000000000011</v>
       </c>
       <c r="C215">
         <v>-49.1</v>
       </c>
     </row>
-    <row r="216" spans="1:3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>217</v>
       </c>
       <c r="B216">
-        <v>3.280000000000001</v>
+        <v>3.2800000000000011</v>
       </c>
       <c r="C216">
         <v>-49.1</v>
       </c>
     </row>
-    <row r="217" spans="1:3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>218</v>
       </c>
       <c r="B217">
-        <v>3.349999999999994</v>
+        <v>3.3499999999999939</v>
       </c>
       <c r="C217">
         <v>-48.72</v>
       </c>
     </row>
-    <row r="218" spans="1:3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>219</v>
       </c>
       <c r="B218">
-        <v>3.579999999999998</v>
+        <v>3.5799999999999979</v>
       </c>
       <c r="C218">
         <v>-47.53</v>
       </c>
     </row>
-    <row r="219" spans="1:3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>220</v>
       </c>
       <c r="B219">
-        <v>3.680000000000007</v>
+        <v>3.6800000000000068</v>
       </c>
       <c r="C219">
         <v>-47.01</v>
       </c>
     </row>
-    <row r="220" spans="1:3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>221</v>
       </c>
@@ -3818,73 +8894,73 @@
         <v>-47.49</v>
       </c>
     </row>
-    <row r="221" spans="1:3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>222</v>
       </c>
       <c r="B221">
-        <v>3.540000000000006</v>
+        <v>3.5400000000000058</v>
       </c>
       <c r="C221">
         <v>-47.77</v>
       </c>
     </row>
-    <row r="222" spans="1:3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>223</v>
       </c>
       <c r="B222">
-        <v>3.540000000000006</v>
+        <v>3.5400000000000058</v>
       </c>
       <c r="C222">
         <v>-47.77</v>
       </c>
     </row>
-    <row r="223" spans="1:3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>224</v>
       </c>
       <c r="B223">
-        <v>3.540000000000006</v>
+        <v>3.5400000000000058</v>
       </c>
       <c r="C223">
         <v>-47.77</v>
       </c>
     </row>
-    <row r="224" spans="1:3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>225</v>
       </c>
       <c r="B224">
-        <v>3.780000000000001</v>
+        <v>3.7800000000000011</v>
       </c>
       <c r="C224">
         <v>-46.5</v>
       </c>
     </row>
-    <row r="225" spans="1:3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>226</v>
       </c>
       <c r="B225">
-        <v>3.900000000000006</v>
+        <v>3.9000000000000061</v>
       </c>
       <c r="C225">
         <v>-45.89</v>
       </c>
     </row>
-    <row r="226" spans="1:3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>227</v>
       </c>
       <c r="B226">
-        <v>4.030000000000001</v>
+        <v>4.0300000000000011</v>
       </c>
       <c r="C226">
         <v>-45.17</v>
       </c>
     </row>
-    <row r="227" spans="1:3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>228</v>
       </c>
@@ -3895,7 +8971,7 @@
         <v>-46.23</v>
       </c>
     </row>
-    <row r="228" spans="1:3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>229</v>
       </c>
@@ -3906,7 +8982,7 @@
         <v>-47.05</v>
       </c>
     </row>
-    <row r="229" spans="1:3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>230</v>
       </c>
@@ -3917,7 +8993,7 @@
         <v>-47.05</v>
       </c>
     </row>
-    <row r="230" spans="1:3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>231</v>
       </c>
@@ -3928,84 +9004,84 @@
         <v>-47.05</v>
       </c>
     </row>
-    <row r="231" spans="1:3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>232</v>
       </c>
       <c r="B231">
-        <v>3.709999999999994</v>
+        <v>3.7099999999999942</v>
       </c>
       <c r="C231">
         <v>-47.7</v>
       </c>
     </row>
-    <row r="232" spans="1:3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>233</v>
       </c>
       <c r="B232">
-        <v>3.709999999999994</v>
+        <v>3.7099999999999942</v>
       </c>
       <c r="C232">
         <v>-48.04</v>
       </c>
     </row>
-    <row r="233" spans="1:3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>234</v>
       </c>
       <c r="B233">
-        <v>3.709999999999994</v>
+        <v>3.7099999999999942</v>
       </c>
       <c r="C233">
         <v>-48.72</v>
       </c>
     </row>
-    <row r="234" spans="1:3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>235</v>
       </c>
       <c r="B234">
-        <v>3.709999999999994</v>
+        <v>3.7099999999999942</v>
       </c>
       <c r="C234">
         <v>-49.41</v>
       </c>
     </row>
-    <row r="235" spans="1:3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>236</v>
       </c>
       <c r="B235">
-        <v>3.709999999999994</v>
+        <v>3.7099999999999942</v>
       </c>
       <c r="C235">
         <v>-49.71</v>
       </c>
     </row>
-    <row r="236" spans="1:3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>237</v>
       </c>
       <c r="B236">
-        <v>3.709999999999994</v>
+        <v>3.7099999999999942</v>
       </c>
       <c r="C236">
         <v>-49.71</v>
       </c>
     </row>
-    <row r="237" spans="1:3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>238</v>
       </c>
       <c r="B237">
-        <v>3.709999999999994</v>
+        <v>3.7099999999999942</v>
       </c>
       <c r="C237">
         <v>-49.71</v>
       </c>
     </row>
-    <row r="238" spans="1:3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>239</v>
       </c>
@@ -4016,18 +9092,18 @@
         <v>-48.18</v>
       </c>
     </row>
-    <row r="239" spans="1:3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>240</v>
       </c>
       <c r="B239">
-        <v>3.810000000000002</v>
+        <v>3.8100000000000018</v>
       </c>
       <c r="C239">
         <v>-49.24</v>
       </c>
     </row>
-    <row r="240" spans="1:3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>241</v>
       </c>
@@ -4038,7 +9114,7 @@
         <v>-48.93</v>
       </c>
     </row>
-    <row r="241" spans="1:3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>242</v>
       </c>
@@ -4049,7 +9125,7 @@
         <v>-49.61</v>
       </c>
     </row>
-    <row r="242" spans="1:3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>243</v>
       </c>
@@ -4060,7 +9136,7 @@
         <v>-49.06</v>
       </c>
     </row>
-    <row r="243" spans="1:3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>244</v>
       </c>
@@ -4071,7 +9147,7 @@
         <v>-49.06</v>
       </c>
     </row>
-    <row r="244" spans="1:3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>245</v>
       </c>
@@ -4082,51 +9158,51 @@
         <v>-49.06</v>
       </c>
     </row>
-    <row r="245" spans="1:3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>246</v>
       </c>
       <c r="B245">
-        <v>3.760000000000005</v>
+        <v>3.7600000000000051</v>
       </c>
       <c r="C245">
         <v>-49.65</v>
       </c>
     </row>
-    <row r="246" spans="1:3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>247</v>
       </c>
       <c r="B246">
-        <v>3.760000000000005</v>
+        <v>3.7600000000000051</v>
       </c>
       <c r="C246">
         <v>-50.98</v>
       </c>
     </row>
-    <row r="247" spans="1:3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>248</v>
       </c>
       <c r="B247">
-        <v>3.760000000000005</v>
+        <v>3.7600000000000051</v>
       </c>
       <c r="C247">
         <v>-51.22</v>
       </c>
     </row>
-    <row r="248" spans="1:3">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>249</v>
       </c>
       <c r="B248">
-        <v>3.760000000000005</v>
+        <v>3.7600000000000051</v>
       </c>
       <c r="C248">
         <v>-51.12</v>
       </c>
     </row>
-    <row r="249" spans="1:3">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>250</v>
       </c>
@@ -4137,7 +9213,7 @@
         <v>-50.64</v>
       </c>
     </row>
-    <row r="250" spans="1:3">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>251</v>
       </c>
@@ -4148,7 +9224,7 @@
         <v>-50.64</v>
       </c>
     </row>
-    <row r="251" spans="1:3">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>252</v>
       </c>
@@ -4159,7 +9235,7 @@
         <v>-50.64</v>
       </c>
     </row>
-    <row r="252" spans="1:3">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>253</v>
       </c>
@@ -4170,150 +9246,150 @@
         <v>-50.64</v>
       </c>
     </row>
-    <row r="253" spans="1:3">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>254</v>
       </c>
       <c r="B253">
-        <v>3.450000000000003</v>
+        <v>3.4500000000000028</v>
       </c>
       <c r="C253">
         <v>-52.65</v>
       </c>
     </row>
-    <row r="254" spans="1:3">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>255</v>
       </c>
       <c r="B254">
-        <v>3.450000000000003</v>
+        <v>3.4500000000000028</v>
       </c>
       <c r="C254">
         <v>-51.32</v>
       </c>
     </row>
-    <row r="255" spans="1:3">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>256</v>
       </c>
       <c r="B255">
-        <v>3.450000000000003</v>
+        <v>3.4500000000000028</v>
       </c>
       <c r="C255">
         <v>-52.83</v>
       </c>
     </row>
-    <row r="256" spans="1:3">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>257</v>
       </c>
       <c r="B256">
-        <v>3.450000000000003</v>
+        <v>3.4500000000000028</v>
       </c>
       <c r="C256">
         <v>-52.69</v>
       </c>
     </row>
-    <row r="257" spans="1:3">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>258</v>
       </c>
       <c r="B257">
-        <v>3.450000000000003</v>
+        <v>3.4500000000000028</v>
       </c>
       <c r="C257">
         <v>-52.69</v>
       </c>
     </row>
-    <row r="258" spans="1:3">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>259</v>
       </c>
       <c r="B258">
-        <v>3.450000000000003</v>
+        <v>3.4500000000000028</v>
       </c>
       <c r="C258">
         <v>-52.69</v>
       </c>
     </row>
-    <row r="259" spans="1:3">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>260</v>
       </c>
       <c r="B259">
-        <v>3.439999999999998</v>
+        <v>3.4399999999999982</v>
       </c>
       <c r="C259">
         <v>-52.76</v>
       </c>
     </row>
-    <row r="260" spans="1:3">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>261</v>
       </c>
       <c r="B260">
-        <v>3.530000000000001</v>
+        <v>3.5300000000000011</v>
       </c>
       <c r="C260">
         <v>-52.31</v>
       </c>
     </row>
-    <row r="261" spans="1:3">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>262</v>
       </c>
       <c r="B261">
-        <v>3.540000000000006</v>
+        <v>3.5400000000000058</v>
       </c>
       <c r="C261">
         <v>-52.28</v>
       </c>
     </row>
-    <row r="262" spans="1:3">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>263</v>
       </c>
       <c r="B262">
-        <v>3.310000000000002</v>
+        <v>3.3100000000000018</v>
       </c>
       <c r="C262">
         <v>-53.34</v>
       </c>
     </row>
-    <row r="263" spans="1:3">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>264</v>
       </c>
       <c r="B263">
-        <v>3.310000000000002</v>
+        <v>3.3100000000000018</v>
       </c>
       <c r="C263">
         <v>-54.19</v>
       </c>
     </row>
-    <row r="264" spans="1:3">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>265</v>
       </c>
       <c r="B264">
-        <v>3.310000000000002</v>
+        <v>3.3100000000000018</v>
       </c>
       <c r="C264">
         <v>-54.19</v>
       </c>
     </row>
-    <row r="265" spans="1:3">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>266</v>
       </c>
       <c r="B265">
-        <v>3.310000000000002</v>
+        <v>3.3100000000000018</v>
       </c>
       <c r="C265">
         <v>-54.19</v>
       </c>
     </row>
-    <row r="266" spans="1:3">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>267</v>
       </c>
@@ -4324,7 +9400,7 @@
         <v>-55.73</v>
       </c>
     </row>
-    <row r="267" spans="1:3">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>268</v>
       </c>
@@ -4335,7 +9411,7 @@
         <v>-55.05</v>
       </c>
     </row>
-    <row r="268" spans="1:3">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>269</v>
       </c>
@@ -4346,7 +9422,7 @@
         <v>-55.56</v>
       </c>
     </row>
-    <row r="269" spans="1:3">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>270</v>
       </c>
@@ -4357,7 +9433,7 @@
         <v>-55.05</v>
       </c>
     </row>
-    <row r="270" spans="1:3">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>271</v>
       </c>
@@ -4368,7 +9444,7 @@
         <v>-56.04</v>
       </c>
     </row>
-    <row r="271" spans="1:3">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>272</v>
       </c>
@@ -4379,7 +9455,7 @@
         <v>-56.04</v>
       </c>
     </row>
-    <row r="272" spans="1:3">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>273</v>
       </c>
@@ -4390,84 +9466,84 @@
         <v>-56.04</v>
       </c>
     </row>
-    <row r="273" spans="1:3">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>274</v>
       </c>
       <c r="B273">
-        <v>2.829999999999998</v>
+        <v>2.8299999999999979</v>
       </c>
       <c r="C273">
         <v>-56.24</v>
       </c>
     </row>
-    <row r="274" spans="1:3">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>275</v>
       </c>
       <c r="B274">
-        <v>2.829999999999998</v>
+        <v>2.8299999999999979</v>
       </c>
       <c r="C274">
         <v>-56.93</v>
       </c>
     </row>
-    <row r="275" spans="1:3">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>276</v>
       </c>
       <c r="B275">
-        <v>2.829999999999998</v>
+        <v>2.8299999999999979</v>
       </c>
       <c r="C275">
         <v>-57.3</v>
       </c>
     </row>
-    <row r="276" spans="1:3">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>277</v>
       </c>
       <c r="B276">
-        <v>2.829999999999998</v>
+        <v>2.8299999999999979</v>
       </c>
       <c r="C276">
         <v>-59.05</v>
       </c>
     </row>
-    <row r="277" spans="1:3">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>278</v>
       </c>
       <c r="B277">
-        <v>2.829999999999998</v>
+        <v>2.8299999999999979</v>
       </c>
       <c r="C277">
         <v>-58.47</v>
       </c>
     </row>
-    <row r="278" spans="1:3">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>279</v>
       </c>
       <c r="B278">
-        <v>2.829999999999998</v>
+        <v>2.8299999999999979</v>
       </c>
       <c r="C278">
         <v>-58.47</v>
       </c>
     </row>
-    <row r="279" spans="1:3">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>280</v>
       </c>
       <c r="B279">
-        <v>2.829999999999998</v>
+        <v>2.8299999999999979</v>
       </c>
       <c r="C279">
         <v>-58.47</v>
       </c>
     </row>
-    <row r="280" spans="1:3">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>281</v>
       </c>
@@ -4478,7 +9554,7 @@
         <v>-57.1</v>
       </c>
     </row>
-    <row r="281" spans="1:3">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>282</v>
       </c>
@@ -4489,7 +9565,7 @@
         <v>-57.27</v>
       </c>
     </row>
-    <row r="282" spans="1:3">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>283</v>
       </c>
@@ -4500,249 +9576,249 @@
         <v>-57.27</v>
       </c>
     </row>
-    <row r="283" spans="1:3">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>284</v>
       </c>
       <c r="B283">
-        <v>3.560000000000002</v>
+        <v>3.5600000000000018</v>
       </c>
       <c r="C283">
         <v>-55.39</v>
       </c>
     </row>
-    <row r="284" spans="1:3">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>285</v>
       </c>
       <c r="B284">
-        <v>3.709999999999994</v>
+        <v>3.7099999999999942</v>
       </c>
       <c r="C284">
         <v>-54.71</v>
       </c>
     </row>
-    <row r="285" spans="1:3">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>286</v>
       </c>
       <c r="B285">
-        <v>3.709999999999994</v>
+        <v>3.7099999999999942</v>
       </c>
       <c r="C285">
         <v>-54.71</v>
       </c>
     </row>
-    <row r="286" spans="1:3">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>287</v>
       </c>
       <c r="B286">
-        <v>3.709999999999994</v>
+        <v>3.7099999999999942</v>
       </c>
       <c r="C286">
         <v>-54.71</v>
       </c>
     </row>
-    <row r="287" spans="1:3">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>288</v>
       </c>
       <c r="B287">
-        <v>3.469999999999999</v>
+        <v>3.4699999999999989</v>
       </c>
       <c r="C287">
         <v>-55.8</v>
       </c>
     </row>
-    <row r="288" spans="1:3">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>289</v>
       </c>
       <c r="B288">
-        <v>3.469999999999999</v>
+        <v>3.4699999999999989</v>
       </c>
       <c r="C288">
         <v>-56.07</v>
       </c>
     </row>
-    <row r="289" spans="1:3">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>290</v>
       </c>
       <c r="B289">
-        <v>3.469999999999999</v>
+        <v>3.4699999999999989</v>
       </c>
       <c r="C289">
         <v>-56.11</v>
       </c>
     </row>
-    <row r="290" spans="1:3">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>291</v>
       </c>
       <c r="B290">
-        <v>3.469999999999999</v>
+        <v>3.4699999999999989</v>
       </c>
       <c r="C290">
         <v>-57.24</v>
       </c>
     </row>
-    <row r="291" spans="1:3">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>292</v>
       </c>
       <c r="B291">
-        <v>3.469999999999999</v>
+        <v>3.4699999999999989</v>
       </c>
       <c r="C291">
         <v>-57.37</v>
       </c>
     </row>
-    <row r="292" spans="1:3">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>293</v>
       </c>
       <c r="B292">
-        <v>3.469999999999999</v>
+        <v>3.4699999999999989</v>
       </c>
       <c r="C292">
         <v>-57.37</v>
       </c>
     </row>
-    <row r="293" spans="1:3">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>294</v>
       </c>
       <c r="B293">
-        <v>3.469999999999999</v>
+        <v>3.4699999999999989</v>
       </c>
       <c r="C293">
         <v>-57.37</v>
       </c>
     </row>
-    <row r="294" spans="1:3">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>295</v>
       </c>
       <c r="B294">
-        <v>3.450000000000003</v>
+        <v>3.4500000000000028</v>
       </c>
       <c r="C294">
         <v>-57.44</v>
       </c>
     </row>
-    <row r="295" spans="1:3">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>296</v>
       </c>
       <c r="B295">
-        <v>3.450000000000003</v>
+        <v>3.4500000000000028</v>
       </c>
       <c r="C295">
         <v>-57.44</v>
       </c>
     </row>
-    <row r="296" spans="1:3">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>297</v>
       </c>
       <c r="B296">
-        <v>3.280000000000001</v>
+        <v>3.2800000000000011</v>
       </c>
       <c r="C296">
         <v>-58.16</v>
       </c>
     </row>
-    <row r="297" spans="1:3">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>298</v>
       </c>
       <c r="B297">
-        <v>3.280000000000001</v>
+        <v>3.2800000000000011</v>
       </c>
       <c r="C297">
         <v>-57.13</v>
       </c>
     </row>
-    <row r="298" spans="1:3">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>299</v>
       </c>
       <c r="B298">
-        <v>3.280000000000001</v>
+        <v>3.2800000000000011</v>
       </c>
       <c r="C298">
         <v>-57.13</v>
       </c>
     </row>
-    <row r="299" spans="1:3">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>300</v>
       </c>
       <c r="B299">
-        <v>3.280000000000001</v>
+        <v>3.2800000000000011</v>
       </c>
       <c r="C299">
         <v>-57.13</v>
       </c>
     </row>
-    <row r="300" spans="1:3">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>301</v>
       </c>
       <c r="B300">
-        <v>3.280000000000001</v>
+        <v>3.2800000000000011</v>
       </c>
       <c r="C300">
         <v>-57.13</v>
       </c>
     </row>
-    <row r="301" spans="1:3">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>302</v>
       </c>
       <c r="B301">
-        <v>3.079999999999998</v>
+        <v>3.0799999999999979</v>
       </c>
       <c r="C301">
         <v>-57.99</v>
       </c>
     </row>
-    <row r="302" spans="1:3">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>303</v>
       </c>
       <c r="B302">
-        <v>3.079999999999998</v>
+        <v>3.0799999999999979</v>
       </c>
       <c r="C302">
         <v>-59.01</v>
       </c>
     </row>
-    <row r="303" spans="1:3">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>304</v>
       </c>
       <c r="B303">
-        <v>3.079999999999998</v>
+        <v>3.0799999999999979</v>
       </c>
       <c r="C303">
         <v>-60.42</v>
       </c>
     </row>
-    <row r="304" spans="1:3">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>305</v>
       </c>
       <c r="B304">
-        <v>3.079999999999998</v>
+        <v>3.0799999999999979</v>
       </c>
       <c r="C304">
         <v>-59.12</v>
       </c>
     </row>
-    <row r="305" spans="1:3">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>306</v>
       </c>
@@ -4753,7 +9829,7 @@
         <v>-56.89</v>
       </c>
     </row>
-    <row r="306" spans="1:3">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>307</v>
       </c>
@@ -4764,7 +9840,7 @@
         <v>-56.89</v>
       </c>
     </row>
-    <row r="307" spans="1:3">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>308</v>
       </c>
@@ -4775,161 +9851,161 @@
         <v>-56.89</v>
       </c>
     </row>
-    <row r="308" spans="1:3">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>309</v>
       </c>
       <c r="B308">
-        <v>4.060000000000002</v>
+        <v>4.0600000000000023</v>
       </c>
       <c r="C308">
         <v>-55.05</v>
       </c>
     </row>
-    <row r="309" spans="1:3">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>310</v>
       </c>
       <c r="B309">
-        <v>4.239999999999995</v>
+        <v>4.2399999999999949</v>
       </c>
       <c r="C309">
         <v>-54.23</v>
       </c>
     </row>
-    <row r="310" spans="1:3">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>311</v>
       </c>
       <c r="B310">
-        <v>4.159999999999997</v>
+        <v>4.1599999999999966</v>
       </c>
       <c r="C310">
         <v>-54.57</v>
       </c>
     </row>
-    <row r="311" spans="1:3">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>312</v>
       </c>
       <c r="B311">
-        <v>4.109999999999999</v>
+        <v>4.1099999999999994</v>
       </c>
       <c r="C311">
         <v>-54.81</v>
       </c>
     </row>
-    <row r="312" spans="1:3">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>313</v>
       </c>
       <c r="B312">
-        <v>4.109999999999999</v>
+        <v>4.1099999999999994</v>
       </c>
       <c r="C312">
         <v>-54.53</v>
       </c>
     </row>
-    <row r="313" spans="1:3">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>314</v>
       </c>
       <c r="B313">
-        <v>4.109999999999999</v>
+        <v>4.1099999999999994</v>
       </c>
       <c r="C313">
         <v>-54.53</v>
       </c>
     </row>
-    <row r="314" spans="1:3">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>315</v>
       </c>
       <c r="B314">
-        <v>4.109999999999999</v>
+        <v>4.1099999999999994</v>
       </c>
       <c r="C314">
         <v>-54.53</v>
       </c>
     </row>
-    <row r="315" spans="1:3">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>316</v>
       </c>
       <c r="B315">
-        <v>5.379999999999995</v>
+        <v>5.3799999999999946</v>
       </c>
       <c r="C315">
         <v>-48.76</v>
       </c>
     </row>
-    <row r="316" spans="1:3">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>317</v>
       </c>
       <c r="B316">
-        <v>5.790000000000006</v>
+        <v>5.7900000000000063</v>
       </c>
       <c r="C316">
         <v>-46.67</v>
       </c>
     </row>
-    <row r="317" spans="1:3">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>318</v>
       </c>
       <c r="B317">
-        <v>5.760000000000005</v>
+        <v>5.7600000000000051</v>
       </c>
       <c r="C317">
         <v>-46.84</v>
       </c>
     </row>
-    <row r="318" spans="1:3">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>319</v>
       </c>
       <c r="B318">
-        <v>5.530000000000001</v>
+        <v>5.5300000000000011</v>
       </c>
       <c r="C318">
         <v>-48.04</v>
       </c>
     </row>
-    <row r="319" spans="1:3">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>320</v>
       </c>
       <c r="B319">
-        <v>5.530000000000001</v>
+        <v>5.5300000000000011</v>
       </c>
       <c r="C319">
         <v>-47.8</v>
       </c>
     </row>
-    <row r="320" spans="1:3">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>321</v>
       </c>
       <c r="B320">
-        <v>5.530000000000001</v>
+        <v>5.5300000000000011</v>
       </c>
       <c r="C320">
         <v>-47.8</v>
       </c>
     </row>
-    <row r="321" spans="1:3">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>322</v>
       </c>
       <c r="B321">
-        <v>5.530000000000001</v>
+        <v>5.5300000000000011</v>
       </c>
       <c r="C321">
         <v>-47.8</v>
       </c>
     </row>
-    <row r="322" spans="1:3">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>323</v>
       </c>
@@ -4940,95 +10016,95 @@
         <v>-43.97</v>
       </c>
     </row>
-    <row r="323" spans="1:3">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>324</v>
       </c>
       <c r="B323">
-        <v>6.329999999999998</v>
+        <v>6.3299999999999983</v>
       </c>
       <c r="C323">
         <v>-43.59</v>
       </c>
     </row>
-    <row r="324" spans="1:3">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>325</v>
       </c>
       <c r="B324">
-        <v>6.290000000000006</v>
+        <v>6.2900000000000063</v>
       </c>
       <c r="C324">
         <v>-43.83</v>
       </c>
     </row>
-    <row r="325" spans="1:3">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>326</v>
       </c>
       <c r="B325">
-        <v>6.129999999999995</v>
+        <v>6.1299999999999946</v>
       </c>
       <c r="C325">
         <v>-44.72</v>
       </c>
     </row>
-    <row r="326" spans="1:3">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>327</v>
       </c>
       <c r="B326">
-        <v>6.129999999999995</v>
+        <v>6.1299999999999946</v>
       </c>
       <c r="C326">
         <v>-43.53</v>
       </c>
     </row>
-    <row r="327" spans="1:3">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>328</v>
       </c>
       <c r="B327">
-        <v>6.129999999999995</v>
+        <v>6.1299999999999946</v>
       </c>
       <c r="C327">
         <v>-43.53</v>
       </c>
     </row>
-    <row r="328" spans="1:3">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>329</v>
       </c>
       <c r="B328">
-        <v>6.129999999999995</v>
+        <v>6.1299999999999946</v>
       </c>
       <c r="C328">
         <v>-43.53</v>
       </c>
     </row>
-    <row r="329" spans="1:3">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>330</v>
       </c>
       <c r="B329">
-        <v>6.640000000000001</v>
+        <v>6.6400000000000006</v>
       </c>
       <c r="C329">
         <v>-40.65</v>
       </c>
     </row>
-    <row r="330" spans="1:3">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>331</v>
       </c>
       <c r="B330">
-        <v>7.129999999999995</v>
+        <v>7.1299999999999946</v>
       </c>
       <c r="C330">
         <v>-37.75</v>
       </c>
     </row>
-    <row r="331" spans="1:3">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>332</v>
       </c>
@@ -5039,7 +10115,7 @@
         <v>-38.53</v>
       </c>
     </row>
-    <row r="332" spans="1:3">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>333</v>
       </c>
@@ -5050,7 +10126,7 @@
         <v>-38.53</v>
       </c>
     </row>
-    <row r="333" spans="1:3">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>334</v>
       </c>
@@ -5058,10 +10134,10 @@
         <v>7</v>
       </c>
       <c r="C333">
-        <v>-39.59</v>
-      </c>
-    </row>
-    <row r="334" spans="1:3">
+        <v>-39.590000000000003</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>335</v>
       </c>
@@ -5069,10 +10145,10 @@
         <v>7</v>
       </c>
       <c r="C334">
-        <v>-39.59</v>
-      </c>
-    </row>
-    <row r="335" spans="1:3">
+        <v>-39.590000000000003</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>336</v>
       </c>
@@ -5080,10 +10156,10 @@
         <v>7</v>
       </c>
       <c r="C335">
-        <v>-39.59</v>
-      </c>
-    </row>
-    <row r="336" spans="1:3">
+        <v>-39.590000000000003</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>337</v>
       </c>
@@ -5094,7 +10170,7 @@
         <v>-42.53</v>
       </c>
     </row>
-    <row r="337" spans="1:3">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>338</v>
       </c>
@@ -5105,7 +10181,7 @@
         <v>-40.86</v>
       </c>
     </row>
-    <row r="338" spans="1:3">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>339</v>
       </c>
@@ -5116,7 +10192,7 @@
         <v>-39.08</v>
       </c>
     </row>
-    <row r="339" spans="1:3">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>340</v>
       </c>
@@ -5127,56 +10203,56 @@
         <v>-37.78</v>
       </c>
     </row>
-    <row r="340" spans="1:3">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>341</v>
       </c>
       <c r="B340">
-        <v>7.140000000000001</v>
+        <v>7.1400000000000006</v>
       </c>
       <c r="C340">
         <v>-35.25</v>
       </c>
     </row>
-    <row r="341" spans="1:3">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>342</v>
       </c>
       <c r="B341">
-        <v>7.140000000000001</v>
+        <v>7.1400000000000006</v>
       </c>
       <c r="C341">
         <v>-35.25</v>
       </c>
     </row>
-    <row r="342" spans="1:3">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>343</v>
       </c>
       <c r="B342">
-        <v>7.140000000000001</v>
+        <v>7.1400000000000006</v>
       </c>
       <c r="C342">
         <v>-35.25</v>
       </c>
     </row>
-    <row r="343" spans="1:3">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>344</v>
       </c>
       <c r="B343">
-        <v>6.840000000000003</v>
+        <v>6.8400000000000034</v>
       </c>
       <c r="C343">
         <v>-37.17</v>
       </c>
     </row>
-    <row r="344" spans="1:3">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>345</v>
       </c>
       <c r="B344">
-        <v>6.840000000000003</v>
+        <v>6.8400000000000034</v>
       </c>
       <c r="C344">
         <v>-36.96</v>
@@ -5184,5 +10260,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>